--- a/文档/Product Backlog.xlsx
+++ b/文档/Product Backlog.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14625" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作为父母，我想录制完当前章节，可以向左滑动进入下一章节，或向右滑动回上一章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作为父母，我想要在录制不满意的时候，可以选择重录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +86,6 @@
   </si>
   <si>
     <t>作为孩子，我想当我点击该故事标题的时候进入播放器，开始播放这个故事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为父母，我想在故事列表可以给我选择删除我不想要的整个故事录音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,8 +116,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,21 +438,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
@@ -474,7 +461,7 @@
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -506,7 +493,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -515,16 +502,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -533,16 +520,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -551,16 +538,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -569,16 +556,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -587,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -596,7 +583,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -605,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -614,43 +601,43 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -659,99 +646,69 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="15" spans="1:7">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19">
         <v>3</v>
       </c>
     </row>

--- a/文档/Product Backlog.xlsx
+++ b/文档/Product Backlog.xlsx
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作为孩子，我想当我点击该故事标题的时候进入播放器，开始播放这个故事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作为孩子，当我不想听的时候，可以选择返回，退出该故事播放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +106,10 @@
   </si>
   <si>
     <t>作为父母，我想在长按章节的时候可以有录制、重录、试听的按钮的上下文菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为孩子，我想当我点击该故事标题的时候进入播放器，开始播放整个故事</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,7 +449,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -491,9 +491,11 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>42270</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -507,11 +509,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42285</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -525,11 +529,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42285</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -543,11 +549,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42272</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -565,7 +573,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -581,9 +589,11 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>42290</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -599,9 +609,14 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>42294</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -614,9 +629,14 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>42296</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -629,9 +649,14 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>42297</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -644,9 +669,14 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>42297</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -659,9 +689,14 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>42297</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -674,9 +709,14 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>42285</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -687,11 +727,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42299</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -702,11 +747,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42299</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
       </c>
       <c r="G17">
         <v>3</v>

--- a/文档/Product Backlog.xlsx
+++ b/文档/Product Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
   </si>
   <si>
     <t>已做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,7 +445,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -549,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>42272</v>
@@ -571,9 +567,11 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>42304</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -727,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <v>42299</v>
